--- a/8月销售数据/8月汇总/汇总8月5-8月-21.xlsx
+++ b/8月销售数据/8月汇总/汇总8月5-8月-21.xlsx
@@ -2696,7 +2696,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2912,7 +2912,7 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2921,22 +2921,22 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3477,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
@@ -7938,7 +7938,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1">
       <c r="A5" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="40">
         <v>42943</v>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1">
       <c r="A6" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="40">
         <v>42943</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
       <c r="A7" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="40">
         <v>42943</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
       <c r="A8" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="40">
         <v>42942</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="A9" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="40">
         <v>42948</v>
